--- a/Burndowns/BurnDown julho.xlsx
+++ b/Burndowns/BurnDown julho.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e13f8c6e67224aec/Documentos/allan/atividades/engenharia/Documentacao-ES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e13f8c6e67224aec/Documentos/allan/atividades/engenharia/Documentacao-ES/Burndowns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{37661DF5-F84C-4274-B02E-7AB666D0E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0AA4DB8-9EBC-4521-8C66-9223CE362A72}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{37661DF5-F84C-4274-B02E-7AB666D0E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F18832A-741E-4F52-BF53-9434FD3B894A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19A0196-D1B4-42F9-82A4-338EA5D692C9}"/>
   </bookViews>
@@ -335,6 +335,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,7 +1447,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,6 +1519,9 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
